--- a/medicine/Enfance/Susan_Wittig_Albert/Susan_Wittig_Albert.xlsx
+++ b/medicine/Enfance/Susan_Wittig_Albert/Susan_Wittig_Albert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Susan Wittig Albert, née le 2 janvier 1940 à dans le comté de Vermilion en Illinois, est une femme de lettres américaine, auteure de roman policier historique et de roman pour adolescents.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Susan Wittig Albert fait des études à la Danville High School (en). Puis, elle obtient un diplôme de l'université d'Illinois et un doctorat en anglais de l'université de Californie à Berkeley. Elle devient professeur d'anglais à l'université du Texas à Austin et administratrice universitaire au H. Sophie Newcomb Memorial College (en) de La Nouvelle-Orléans et vice-présidente des affaires académiques à la Texas State University.
 En 1992, elle publie son premier roman, Thyme of Death, premier volume d'une série consacrée à China Bayles, herboriste et ancien avocat à Pecan Springs au Texas.
@@ -547,9 +561,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans signés Susan Wittig Albert
-Série China Bayles
-Thyme of Death (1992)
+          <t>Romans signés Susan Wittig Albert</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série China Bayles</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Thyme of Death (1992)
 Witches’ Bane (1993)
 Hangman’s Root (1994)
 Rosemary Remembered (1995)
@@ -574,31 +596,182 @@
 Bittersweet (2015)
 Blood Orange (2016)
 The Last Chance Olive Ranch (2017)
-Queen Anne’s Lace (2018)
-Série The Cottage Tales of Beatrix Potter
-The Tale of Hill Top Farm (2004)
+Queen Anne’s Lace (2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans signés Susan Wittig Albert</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série The Cottage Tales of Beatrix Potter</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The Tale of Hill Top Farm (2004)
 The Tale of Holly How (2005)
 The Tale of Cuckoo Brow Wood (2006)
 The Tale of Hawthorn House (2007)
 The Tale of Briar Bank (2008)
 The Tale of Applebeck Orchard (2009)
 The Tale of Oat Cake Crag (2010)
-The Tale of Castle Cottage (2011)
-Série Darling Dahlias
-The Darling Dahlias and the Cucumber Tree (2010)
+The Tale of Castle Cottage (2011)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans signés Susan Wittig Albert</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Darling Dahlias</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The Darling Dahlias and the Cucumber Tree (2010)
 The Darling Dahlias and the Naked Ladies (2011)
 The Darling Dahlias and the Confederate Rose (2012)
 The Darling Dahlias and the Texas Star (2013)
 The Darling Dahlias and the Silver Dollar Bush (2014)
 The Darling Dahlias and the Eleven O’Clock Lady (2015)
-The Darling Dahlias and the Unlucky Clover (2018)
-Autres romans
-A Wilder Rose (2013)
+The Darling Dahlias and the Unlucky Clover (2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans signés Susan Wittig Albert</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A Wilder Rose (2013)
 Loving Eleanor (2015)
-The General's Women (2016)
-Romans signés Robin Paige
-Série Kathryn Ardleigh et Sir Charles Sheridan
-Death at Bishops Keep (1994)
+The General's Women (2016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans signés Robin Paige</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Kathryn Ardleigh et Sir Charles Sheridan</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Death at Bishops Keep (1994)
 Death at Gallows Green (1995)
 Death at Daisy's Folly (1997)
 Death at Devil's Bridge (1998)
@@ -609,12 +782,83 @@
 Death at Glamis Castle (2003)
 Death in Hyde Park (2004)
 Death at Blenheim Palace (2005)
-Death on the Lizard (2006)
-Recueil de nouvelles signés Susan Wittig Albert
-Série China Bayles
-* An Unthymely Death (2003)
-Autres ouvrages signés Susan Wittig Albert
-Work of Her Own (1992)
+Death on the Lizard (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles signés Susan Wittig Albert</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série China Bayles</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>* An Unthymely Death (2003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susan_Wittig_Albert</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Autres ouvrages signés Susan Wittig Albert</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Work of Her Own (1992)
 Writing From Life (2000)
 Together, Alone (2009)
 An Extraordinary Year of Ordinary Days (2010)
@@ -622,35 +866,40 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Susan_Wittig_Albert</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Susan_Wittig_Albert</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nominations
-Prix Agatha 1992 du meilleur premier roman Thyme of Death[1]
-Prix Anthony 1993 du meilleur premier roman Thyme of Death[2]</t>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix Agatha 1992 du meilleur premier roman Thyme of Death
+Prix Anthony 1993 du meilleur premier roman Thyme of Death</t>
         </is>
       </c>
     </row>
